--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
@@ -546,10 +546,10 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>1.044895803237333</v>
+        <v>0.8036064215565556</v>
       </c>
       <c r="R2">
-        <v>9.404062229136001</v>
+        <v>7.232457794009001</v>
       </c>
       <c r="S2">
-        <v>0.0304344795000256</v>
+        <v>0.0115142215722107</v>
       </c>
       <c r="T2">
-        <v>0.03043447950002559</v>
+        <v>0.01151422157221071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
         <v>2.366548913948556</v>
@@ -638,10 +638,10 @@
         <v>21.298940225537</v>
       </c>
       <c r="S3">
-        <v>0.0689300159731006</v>
+        <v>0.03390835093614364</v>
       </c>
       <c r="T3">
-        <v>0.06893001597310058</v>
+        <v>0.03390835093614365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.3868012823690001</v>
+        <v>0.4967124989787778</v>
       </c>
       <c r="R4">
-        <v>3.481211541321001</v>
+        <v>4.470412490809</v>
       </c>
       <c r="S4">
-        <v>0.01126628670760302</v>
+        <v>0.007116988637111862</v>
       </c>
       <c r="T4">
-        <v>0.01126628670760301</v>
+        <v>0.007116988637111862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.229421</v>
       </c>
       <c r="I5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>0.5638623942405555</v>
+        <v>0.7578381046527779</v>
       </c>
       <c r="R5">
-        <v>5.074761548164999</v>
+        <v>6.820542941875001</v>
       </c>
       <c r="S5">
-        <v>0.01642351172737144</v>
+        <v>0.0108584446549525</v>
       </c>
       <c r="T5">
-        <v>0.01642351172737143</v>
+        <v>0.0108584446549525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.229421</v>
       </c>
       <c r="I6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>0.4685954769378889</v>
+        <v>0.3511011060502223</v>
       </c>
       <c r="R6">
-        <v>4.217359292441</v>
+        <v>3.159909954452</v>
       </c>
       <c r="S6">
-        <v>0.01364869051295406</v>
+        <v>0.005030641643554857</v>
       </c>
       <c r="T6">
-        <v>0.01364869051295405</v>
+        <v>0.005030641643554857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>4.316878334096</v>
+        <v>6.533888599921667</v>
       </c>
       <c r="R7">
-        <v>38.85190500686399</v>
+        <v>58.804997399295</v>
       </c>
       <c r="S7">
-        <v>0.125736886640847</v>
+        <v>0.09361876541742517</v>
       </c>
       <c r="T7">
-        <v>0.125736886640847</v>
+        <v>0.09361876541742518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H8">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I8">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J8">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
-        <v>9.777150699190333</v>
+        <v>19.24171653588167</v>
       </c>
       <c r="R8">
-        <v>87.99435629271299</v>
+        <v>173.175448822935</v>
       </c>
       <c r="S8">
-        <v>0.2847771917556281</v>
+        <v>0.2756988765653111</v>
       </c>
       <c r="T8">
-        <v>0.284777191755628</v>
+        <v>0.2756988765653111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H9">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I9">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J9">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>1.598029267881</v>
+        <v>4.038623942588334</v>
       </c>
       <c r="R9">
-        <v>14.382263410929</v>
+        <v>36.347615483295</v>
       </c>
       <c r="S9">
-        <v>0.04654549175437584</v>
+        <v>0.05786615148212151</v>
       </c>
       <c r="T9">
-        <v>0.04654549175437583</v>
+        <v>0.05786615148212151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H10">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I10">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J10">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>2.329538835898333</v>
+        <v>6.161759811458334</v>
       </c>
       <c r="R10">
-        <v>20.965849523085</v>
+        <v>55.45583830312501</v>
       </c>
       <c r="S10">
-        <v>0.06785203053357251</v>
+        <v>0.0882868352475969</v>
       </c>
       <c r="T10">
-        <v>0.0678520305335725</v>
+        <v>0.0882868352475969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H11">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I11">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J11">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>1.935953475534334</v>
+        <v>2.854700326806667</v>
       </c>
       <c r="R11">
-        <v>17.423581279809</v>
+        <v>25.69230294126</v>
       </c>
       <c r="S11">
-        <v>0.05638814528836824</v>
+        <v>0.04090267474648471</v>
       </c>
       <c r="T11">
-        <v>0.05638814528836822</v>
+        <v>0.04090267474648471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H12">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>2.064477747349333</v>
+        <v>4.406218343812444</v>
       </c>
       <c r="R12">
-        <v>18.580299726144</v>
+        <v>39.65596509431201</v>
       </c>
       <c r="S12">
-        <v>0.06013164708413617</v>
+        <v>0.06313311211217747</v>
       </c>
       <c r="T12">
-        <v>0.06013164708413616</v>
+        <v>0.06313311211217748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H13">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>4.675765330594222</v>
+        <v>12.97591825606844</v>
       </c>
       <c r="R13">
-        <v>42.081887975348</v>
+        <v>116.783264304616</v>
       </c>
       <c r="S13">
-        <v>0.1361901193018552</v>
+        <v>0.1859213588834557</v>
       </c>
       <c r="T13">
-        <v>0.1361901193018552</v>
+        <v>0.1859213588834558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H14">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>0.7642318378760001</v>
+        <v>2.723502035190223</v>
       </c>
       <c r="R14">
-        <v>6.878086540884</v>
+        <v>24.511518316712</v>
       </c>
       <c r="S14">
-        <v>0.02225963405254587</v>
+        <v>0.03902284133669041</v>
       </c>
       <c r="T14">
-        <v>0.02225963405254586</v>
+        <v>0.03902284133669041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H15">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>1.114064542962222</v>
+        <v>4.155268137222222</v>
       </c>
       <c r="R15">
-        <v>10.02658088666</v>
+        <v>37.39741323500001</v>
       </c>
       <c r="S15">
-        <v>0.03244914410550836</v>
+        <v>0.05953745109608576</v>
       </c>
       <c r="T15">
-        <v>0.03244914410550836</v>
+        <v>0.05953745109608578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H16">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>0.9258386641515556</v>
+        <v>1.925106734481778</v>
       </c>
       <c r="R16">
-        <v>8.332547977364001</v>
+        <v>17.325960610336</v>
       </c>
       <c r="S16">
-        <v>0.02696672506210794</v>
+        <v>0.02758328566867756</v>
       </c>
       <c r="T16">
-        <v>0.02696672506210794</v>
+        <v>0.02758328566867756</v>
       </c>
     </row>
   </sheetData>
